--- a/Untitled spreadsheet.xlsx
+++ b/Untitled spreadsheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
   <si>
     <t xml:space="preserve">aly </t>
   </si>
@@ -75,20 +75,29 @@
     <t>battaryes</t>
   </si>
   <si>
-    <t>pcp</t>
-  </si>
-  <si>
-    <t>arduino nano</t>
-  </si>
-  <si>
-    <t>mr zaki</t>
+    <t>soldier</t>
+  </si>
+  <si>
+    <t>ali</t>
+  </si>
+  <si>
+    <t>body 2</t>
+  </si>
+  <si>
+    <t>body 3</t>
+  </si>
+  <si>
+    <t>screws &amp; bolts</t>
+  </si>
+  <si>
+    <t>10 out of 20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -108,8 +117,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,8 +145,18 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -156,12 +190,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -169,9 +248,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -388,34 +474,39 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AC9"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:29" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -440,19 +531,19 @@
       <c r="AC1" s="2"/>
     </row>
     <row r="2" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="8">
         <v>890</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
       <c r="O2" s="1" t="s">
         <v>4</v>
       </c>
@@ -512,7 +603,7 @@
       </c>
       <c r="Q3" s="1">
         <f>SUM(B:B)</f>
-        <v>1835</v>
+        <v>2213.5</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>7</v>
@@ -555,10 +646,10 @@
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="2"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="2"/>
+      <c r="G4" s="6"/>
       <c r="O4" s="1" t="s">
         <v>9</v>
       </c>
@@ -650,13 +741,16 @@
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2"/>
+      <c r="B7" s="2">
+        <f>33.5+230</f>
+        <v>263.5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="2"/>
       <c r="S7" s="5" t="s">
         <v>13</v>
@@ -667,29 +761,59 @@
     </row>
     <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B8" s="2">
+        <v>40</v>
+      </c>
       <c r="C8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="B9" s="2">
+        <v>40</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2">
+        <v>35</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
